--- a/Resultaten/Resultaten.xlsx
+++ b/Resultaten/Resultaten.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Grafiek1" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>size</t>
   </si>
@@ -37,6 +37,21 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Join</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Paste</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
   </si>
 </sst>
 </file>
@@ -402,11 +417,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="377304704"/>
-        <c:axId val="377305880"/>
+        <c:axId val="276142496"/>
+        <c:axId val="277676848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="377304704"/>
+        <c:axId val="276142496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +464,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377305880"/>
+        <c:crossAx val="277676848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="377305880"/>
+        <c:axId val="277676848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -509,7 +524,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="377304704"/>
+        <c:crossAx val="276142496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,7 +1160,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1156,7 +1171,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9309919" cy="6083710"/>
+    <xdr:ext cx="9299677" cy="6073468"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafiek 1"/>
@@ -1442,15 +1457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1463,8 +1478,23 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1478,13 +1508,28 @@
         <v>35</v>
       </c>
       <c r="E2">
-        <f>LOG(A2)</f>
+        <f t="shared" ref="E2:E9" si="0">LOG(A2)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>251</v>
+      </c>
+      <c r="K2">
+        <v>529</v>
+      </c>
+      <c r="L2">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>+A2*10</f>
+        <f t="shared" ref="A3:A9" si="1">+A2*10</f>
         <v>10</v>
       </c>
       <c r="B3">
@@ -1497,13 +1542,30 @@
         <v>70</v>
       </c>
       <c r="E3">
-        <f>LOG(A3)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <f>IF(I3=1,H2*10,H2)</f>
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <f>IF(I2=10000,1,I2*10)</f>
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>230</v>
+      </c>
+      <c r="K3">
+        <v>643</v>
+      </c>
+      <c r="L3">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>+A3*10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="B4">
@@ -1516,13 +1578,30 @@
         <v>105</v>
       </c>
       <c r="E4">
-        <f>LOG(A4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f t="shared" ref="H4:H16" si="2">IF(I4=1,H3*10,H3)</f>
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I16" si="3">IF(I3=10000,1,I3*10)</f>
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>129</v>
+      </c>
+      <c r="K4">
+        <v>352</v>
+      </c>
+      <c r="L4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>+A4*10</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="B5">
@@ -1535,13 +1614,30 @@
         <v>145</v>
       </c>
       <c r="E5">
-        <f>LOG(A5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J5">
+        <v>182</v>
+      </c>
+      <c r="K5">
+        <v>358</v>
+      </c>
+      <c r="L5">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>+A5*10</f>
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
       <c r="B6">
@@ -1554,13 +1650,30 @@
         <v>290</v>
       </c>
       <c r="E6">
-        <f>LOG(A6)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="J6">
+        <v>564</v>
+      </c>
+      <c r="K6">
+        <v>442</v>
+      </c>
+      <c r="L6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>+A6*10</f>
+        <f t="shared" si="1"/>
         <v>100000</v>
       </c>
       <c r="B7">
@@ -1573,13 +1686,30 @@
         <v>630</v>
       </c>
       <c r="E7">
-        <f>LOG(A7)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>62</v>
+      </c>
+      <c r="K7">
+        <v>157</v>
+      </c>
+      <c r="L7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>+A7*10</f>
+        <f t="shared" si="1"/>
         <v>1000000</v>
       </c>
       <c r="B8">
@@ -1592,13 +1722,30 @@
         <v>1130</v>
       </c>
       <c r="E8">
-        <f>LOG(A8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>74</v>
+      </c>
+      <c r="K8">
+        <v>272</v>
+      </c>
+      <c r="L8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>+A8*10</f>
+        <f t="shared" si="1"/>
         <v>10000000</v>
       </c>
       <c r="B9">
@@ -1611,8 +1758,348 @@
         <v>1400</v>
       </c>
       <c r="E9">
-        <f>LOG(A9)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J9">
+        <v>109</v>
+      </c>
+      <c r="K9">
+        <v>327</v>
+      </c>
+      <c r="L9">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J10">
+        <v>139</v>
+      </c>
+      <c r="K10">
+        <v>364</v>
+      </c>
+      <c r="L10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="J11">
+        <v>579</v>
+      </c>
+      <c r="K11">
+        <v>528</v>
+      </c>
+      <c r="L11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>77</v>
+      </c>
+      <c r="K12">
+        <v>242</v>
+      </c>
+      <c r="L12">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>102</v>
+      </c>
+      <c r="K13">
+        <v>316</v>
+      </c>
+      <c r="L13">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J14">
+        <v>124</v>
+      </c>
+      <c r="K14">
+        <v>389</v>
+      </c>
+      <c r="L14">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+      <c r="J15">
+        <v>190</v>
+      </c>
+      <c r="K15">
+        <v>446</v>
+      </c>
+      <c r="L15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="J16">
+        <v>678</v>
+      </c>
+      <c r="K16">
+        <v>606</v>
+      </c>
+      <c r="L16">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <f t="shared" ref="H17:H24" si="4">IF(I17=1,H16*10,H16)</f>
+        <v>1000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ref="I17:I24" si="5">IF(I16=10000,1,I16*10)</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>104</v>
+      </c>
+      <c r="K17">
+        <v>365</v>
+      </c>
+      <c r="L17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>133</v>
+      </c>
+      <c r="K18">
+        <v>369</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J19">
+        <v>186</v>
+      </c>
+      <c r="K19">
+        <v>460</v>
+      </c>
+      <c r="L19">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="J20">
+        <v>218</v>
+      </c>
+      <c r="K20">
+        <v>568</v>
+      </c>
+      <c r="L20">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+      <c r="J21">
+        <v>818</v>
+      </c>
+      <c r="K21">
+        <v>628</v>
+      </c>
+      <c r="L21">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>170</v>
+      </c>
+      <c r="K22">
+        <v>432</v>
+      </c>
+      <c r="L22">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J23">
+        <v>204</v>
+      </c>
+      <c r="K23">
+        <v>489</v>
+      </c>
+      <c r="L23">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="24" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J24">
+        <v>246</v>
+      </c>
+      <c r="K24">
+        <v>596</v>
+      </c>
+      <c r="L24">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" ref="H25:H27" si="6">IF(I25=1,H24*10,H24)</f>
+        <v>10000</v>
+      </c>
+      <c r="I25">
+        <f t="shared" ref="I25:I27" si="7">IF(I24=10000,1,I24*10)</f>
+        <v>1000</v>
+      </c>
+      <c r="J25">
+        <v>380</v>
+      </c>
+      <c r="K25">
+        <v>672</v>
+      </c>
+      <c r="L25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f t="shared" si="6"/>
+        <v>10000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="J26">
+        <v>817</v>
+      </c>
+      <c r="K26">
+        <v>789</v>
+      </c>
+      <c r="L26">
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/Resultaten/Resultaten.xlsx
+++ b/Resultaten/Resultaten.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Grafiek1" sheetId="2" r:id="rId1"/>
     <sheet name="Blad1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>size</t>
   </si>
@@ -52,6 +53,9 @@
   </si>
   <si>
     <t>right</t>
+  </si>
+  <si>
+    <t>20 different treaps. 50 runs per treap</t>
   </si>
 </sst>
 </file>
@@ -131,7 +135,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$B$1</c:f>
+              <c:f>Blad1!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -154,10 +158,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$2:$A$9</c:f>
+              <c:f>Blad1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -181,39 +185,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$2:$B$9</c:f>
+              <c:f>Blad1!$B$3:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>230</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>570</c:v>
+                  <c:v>436</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1080</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1350</c:v>
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -225,7 +235,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$C$1</c:f>
+              <c:f>Blad1!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -248,10 +258,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$2:$A$9</c:f>
+              <c:f>Blad1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -275,39 +285,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$C$2:$C$9</c:f>
+              <c:f>Blad1!$C$3:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>120</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>140</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>190</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>310</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>640</c:v>
+                  <c:v>511</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1140</c:v>
+                  <c:v>1037</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1440</c:v>
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -319,11 +335,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad1!$D$1</c:f>
+              <c:f>Blad1!$D$3:$D$5</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Delete</c:v>
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -342,10 +364,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Blad1!$A$2:$A$9</c:f>
+              <c:f>Blad1!$A$3:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -369,39 +391,45 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>10000000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$2:$D$9</c:f>
+              <c:f>Blad1!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>105</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>145</c:v>
+                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>290</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>630</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1130</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1400</c:v>
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -417,11 +445,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="276142496"/>
-        <c:axId val="277676848"/>
+        <c:axId val="305044080"/>
+        <c:axId val="305049960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="276142496"/>
+        <c:axId val="305044080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -464,7 +492,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="277676848"/>
+        <c:crossAx val="305049960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -472,9 +500,8 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="277676848"/>
+        <c:axId val="305049960"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -524,7 +551,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="276142496"/>
+        <c:crossAx val="305044080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1160,7 +1187,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1171,7 +1198,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9299677" cy="6073468"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Grafiek 1"/>
@@ -1457,201 +1484,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L2" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <f t="shared" ref="E2:E9" si="0">LOG(A2)</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>251</v>
-      </c>
-      <c r="K2">
-        <v>529</v>
-      </c>
-      <c r="L2">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A9" si="1">+A2*10</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>250</v>
+      </c>
+      <c r="D3">
+        <v>129</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E10" si="0">LOG(A3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>251</v>
+      </c>
+      <c r="K3">
+        <v>529</v>
+      </c>
+      <c r="L3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f t="shared" ref="A4:A11" si="1">+A3*10</f>
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>70</v>
-      </c>
-      <c r="E3">
+      <c r="B4">
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>200</v>
+      </c>
+      <c r="D4">
+        <v>191</v>
+      </c>
+      <c r="E4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="H3">
-        <f>IF(I3=1,H2*10,H2)</f>
+      <c r="H4">
+        <f>IF(I4=1,H3*10,H3)</f>
         <v>1</v>
       </c>
-      <c r="I3">
-        <f>IF(I2=10000,1,I2*10)</f>
+      <c r="I4">
+        <f>IF(I3=10000,1,I3*10)</f>
         <v>10</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>230</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>643</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>198</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="B4">
-        <v>57</v>
-      </c>
-      <c r="C4">
-        <v>140</v>
-      </c>
-      <c r="D4">
-        <v>105</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ref="H4:H16" si="2">IF(I4=1,H3*10,H3)</f>
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I16" si="3">IF(I3=10000,1,I3*10)</f>
-        <v>100</v>
-      </c>
-      <c r="J4">
-        <v>129</v>
-      </c>
-      <c r="K4">
-        <v>352</v>
-      </c>
-      <c r="L4">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="1"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="D5">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H5:H17" si="2">IF(I5=1,H4*10,H4)</f>
         <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
-        <v>1000</v>
+        <f t="shared" ref="I5:I17" si="3">IF(I4=10000,1,I4*10)</f>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="K5">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L5">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="B6">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="D6">
-        <v>290</v>
+        <v>164</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -1659,71 +1658,71 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J6">
-        <v>564</v>
+        <v>182</v>
       </c>
       <c r="K6">
-        <v>442</v>
+        <v>358</v>
       </c>
       <c r="L6">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="1"/>
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="B7">
-        <v>570</v>
+        <v>143</v>
       </c>
       <c r="C7">
-        <v>640</v>
+        <v>246</v>
       </c>
       <c r="D7">
-        <v>630</v>
+        <v>197</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="J7">
-        <v>62</v>
+        <v>564</v>
       </c>
       <c r="K7">
-        <v>157</v>
+        <v>442</v>
       </c>
       <c r="L7">
-        <v>84</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="1"/>
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="B8">
-        <v>1080</v>
+        <v>436</v>
       </c>
       <c r="C8">
-        <v>1140</v>
+        <v>511</v>
       </c>
       <c r="D8">
-        <v>1130</v>
+        <v>432</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
@@ -1731,35 +1730,35 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="L8">
-        <v>109</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="1"/>
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="B9">
-        <v>1350</v>
+        <v>900</v>
       </c>
       <c r="C9">
-        <v>1440</v>
+        <v>1037</v>
       </c>
       <c r="D9">
-        <v>1400</v>
+        <v>1020</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
@@ -1767,73 +1766,103 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J9">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>272</v>
+      </c>
+      <c r="L9">
         <v>109</v>
       </c>
-      <c r="K9">
-        <v>327</v>
-      </c>
-      <c r="L9">
-        <v>127</v>
-      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>10000000</v>
+      </c>
+      <c r="B10">
+        <v>1520</v>
+      </c>
+      <c r="C10">
+        <v>1531</v>
+      </c>
+      <c r="D10">
+        <v>1569</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="H10">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="K10">
-        <v>364</v>
+        <v>327</v>
       </c>
       <c r="L10">
-        <v>150</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+      <c r="B11">
+        <v>1548</v>
+      </c>
+      <c r="C11">
+        <v>1661</v>
+      </c>
+      <c r="D11">
+        <v>1638</v>
+      </c>
       <c r="H11">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J11">
-        <v>579</v>
+        <v>139</v>
       </c>
       <c r="K11">
-        <v>528</v>
+        <v>364</v>
       </c>
       <c r="L11">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="J12">
-        <v>77</v>
+        <v>579</v>
       </c>
       <c r="K12">
-        <v>242</v>
+        <v>528</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1843,16 +1872,16 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>102</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>316</v>
+        <v>242</v>
       </c>
       <c r="L13">
-        <v>154</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -1862,16 +1891,16 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J14">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="K14">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="L14">
-        <v>198</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -1881,16 +1910,16 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J15">
-        <v>190</v>
+        <v>124</v>
       </c>
       <c r="K15">
-        <v>446</v>
+        <v>389</v>
       </c>
       <c r="L15">
-        <v>245</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1900,54 +1929,54 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J16">
-        <v>678</v>
+        <v>190</v>
       </c>
       <c r="K16">
-        <v>606</v>
+        <v>446</v>
       </c>
       <c r="L16">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H17">
-        <f t="shared" ref="H17:H24" si="4">IF(I17=1,H16*10,H16)</f>
-        <v>1000</v>
+        <f t="shared" si="2"/>
+        <v>100</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I24" si="5">IF(I16=10000,1,I16*10)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>10000</v>
       </c>
       <c r="J17">
-        <v>104</v>
+        <v>678</v>
       </c>
       <c r="K17">
-        <v>365</v>
+        <v>606</v>
       </c>
       <c r="L17">
-        <v>144</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H18">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H18:H25" si="4">IF(I18=1,H17*10,H17)</f>
         <v>1000</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f t="shared" ref="I18:I25" si="5">IF(I17=10000,1,I17*10)</f>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="K18">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L18">
-        <v>200</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.25">
@@ -1957,16 +1986,16 @@
       </c>
       <c r="I19">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="K19">
-        <v>460</v>
+        <v>369</v>
       </c>
       <c r="L19">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="8:12" x14ac:dyDescent="0.25">
@@ -1976,16 +2005,16 @@
       </c>
       <c r="I20">
         <f t="shared" si="5"/>
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="J20">
+        <v>186</v>
+      </c>
+      <c r="K20">
+        <v>460</v>
+      </c>
+      <c r="L20">
         <v>218</v>
-      </c>
-      <c r="K20">
-        <v>568</v>
-      </c>
-      <c r="L20">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.25">
@@ -1995,35 +2024,35 @@
       </c>
       <c r="I21">
         <f t="shared" si="5"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="J21">
-        <v>818</v>
+        <v>218</v>
       </c>
       <c r="K21">
-        <v>628</v>
+        <v>568</v>
       </c>
       <c r="L21">
-        <v>338</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H22">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>1000</v>
       </c>
       <c r="I22">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="J22">
-        <v>170</v>
+        <v>818</v>
       </c>
       <c r="K22">
-        <v>432</v>
+        <v>628</v>
       </c>
       <c r="L22">
-        <v>178</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="8:12" x14ac:dyDescent="0.25">
@@ -2033,16 +2062,16 @@
       </c>
       <c r="I23">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="K23">
-        <v>489</v>
+        <v>432</v>
       </c>
       <c r="L23">
-        <v>255</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.25">
@@ -2052,53 +2081,72 @@
       </c>
       <c r="I24">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="K24">
-        <v>596</v>
+        <v>489</v>
       </c>
       <c r="L24">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H25">
-        <f t="shared" ref="H25:H27" si="6">IF(I25=1,H24*10,H24)</f>
+        <f t="shared" si="4"/>
         <v>10000</v>
       </c>
       <c r="I25">
-        <f t="shared" ref="I25:I27" si="7">IF(I24=10000,1,I24*10)</f>
-        <v>1000</v>
+        <f t="shared" si="5"/>
+        <v>100</v>
       </c>
       <c r="J25">
-        <v>380</v>
+        <v>246</v>
       </c>
       <c r="K25">
-        <v>672</v>
+        <v>596</v>
       </c>
       <c r="L25">
-        <v>300</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="8:12" x14ac:dyDescent="0.25">
       <c r="H26">
+        <f t="shared" ref="H26:H27" si="6">IF(I26=1,H25*10,H25)</f>
+        <v>10000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:I27" si="7">IF(I25=10000,1,I25*10)</f>
+        <v>1000</v>
+      </c>
+      <c r="J26">
+        <v>380</v>
+      </c>
+      <c r="K26">
+        <v>672</v>
+      </c>
+      <c r="L26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H27">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <f t="shared" si="7"/>
         <v>10000</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>817</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>789</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>391</v>
       </c>
     </row>
